--- a/template Excel/Accountting/ExpenseReports.xlsx
+++ b/template Excel/Accountting/ExpenseReports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8633674-E255-42BA-AFF4-C5852346CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5FC805-9739-4DF4-A920-B94CCCEFA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{25018615-5793-4098-898F-AF3FE9003883}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
-    <t>ReportId</t>
-  </si>
-  <si>
     <t>ReportDate</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>ExpenseReportId</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,27 +474,27 @@
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3">
         <v>45506</v>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3">
         <v>45508</v>
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3">
         <v>45510</v>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3">
         <v>45512</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3">
         <v>45514</v>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3">
         <v>45516</v>
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
         <v>45518</v>
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3">
         <v>45520</v>
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3">
         <v>45522</v>
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3">
         <v>45524</v>
